--- a/backend/Profesores.xlsx
+++ b/backend/Profesores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto_Grado\Front-End\DT_2025-1-12\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB21DF12-BA6E-4DCE-895A-0FC40619594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22440E-6060-4E09-9263-EEF8CC35FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="46">
   <si>
     <t>MATERIA</t>
   </si>
@@ -84,47 +84,92 @@
     <t xml:space="preserve">LIDERAZGO </t>
   </si>
   <si>
-    <t>ELECTIVA: DISEÑO PMO</t>
-  </si>
-  <si>
-    <t>GERENCIA ORGANIZACIONAL DE PROYECTOS I</t>
-  </si>
-  <si>
-    <t>GERENCIA ORGANIZACIONAL DE PROYECTOS II</t>
-  </si>
-  <si>
-    <t>Seminario de proyecto de grado I, II, III y IV, GOP I (VIRTUAL)</t>
-  </si>
-  <si>
-    <t>Seminario de proyecto de grado III en virtual</t>
-  </si>
-  <si>
-    <t>TIC I PRESENCIAL</t>
-  </si>
-  <si>
-    <t>ENFASIS INNOVACION I</t>
-  </si>
-  <si>
-    <t>ANALITICA DE DATOS</t>
-  </si>
-  <si>
-    <t>RIESGOS 1 PRESENCIAL</t>
-  </si>
-  <si>
-    <t>INNOVACIÓN Y TRANSFORMACIÓN DIGITAL PRESENCIAL</t>
-  </si>
-  <si>
-    <t>MODILO 1 GESTIÓN DE PROYECTOS PRESENCIAL</t>
-  </si>
-  <si>
     <t>IDENTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>#GAC</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>MATERIA RELACIONADA CON EL RAC</t>
+  </si>
+  <si>
+    <t>GAC3</t>
+  </si>
+  <si>
+    <t>Strategic Awareness                                                       Contextual awareness and knowledge of strategic and operational drivers required to inform decisions and deliver sustained competitive advantage. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>Gestión de proyectos 2</t>
+  </si>
+  <si>
+    <t>GAC1</t>
+  </si>
+  <si>
+    <t>Technical Expertise: Management of projects to meet needs within constraints, with reference to professional standards and guides. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>Gestión de proyectos 1</t>
+  </si>
+  <si>
+    <t>Electiva de profundización 1: PMO</t>
+  </si>
+  <si>
+    <t>Electiva de profundización 2: PMO</t>
+  </si>
+  <si>
+    <t>Technical Expertise                                                      Management of projects to meet needs within constraints, with reference to professional standards and guides. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>GAC2</t>
+  </si>
+  <si>
+    <t>Professional Behavior                                                                  Ethical and culturally aware stakeholder engagement, communication, leadership, and team work. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>Electiva profesional 2: Innovación 2</t>
+  </si>
+  <si>
+    <t>Seminario de investigación</t>
+  </si>
+  <si>
+    <t>Professional Behavior: Ethical and culturally aware stakeholder engagement, communication, leadership, and team work. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>Strategic Awareness: Contextual awareness and knowledge of strategic and operational drivers required to inform decisions and deliver sustained competitive advantage. (Related to Management of Projects)</t>
+  </si>
+  <si>
+    <t>Electiva profesional 1: Riesgos 1</t>
+  </si>
+  <si>
+    <t>Herramientas para la gestión de proyectos 1</t>
+  </si>
+  <si>
+    <t>Herramientas para la gestión de proyectos 2</t>
+  </si>
+  <si>
+    <t>Electiva profesional 2: Riesgos 2</t>
+  </si>
+  <si>
+    <t>Trabajo de grado</t>
+  </si>
+  <si>
+    <t>Seminario de Investigación</t>
+  </si>
+  <si>
+    <t>Electiva Profesional 2: Innovación 2</t>
+  </si>
+  <si>
+    <t>Electiva profesional 2: Riesgos 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +181,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,7 +236,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -191,6 +243,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,252 +536,1919 @@
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1110459170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>79733257</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1127340813</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1019008626</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>52557001</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1013602745</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>51849457</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>79631878</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1032406082</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>91531865</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2112734</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>52991828</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>52983338</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>52273094</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>1121826810</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>79519129</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>52270850</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>1024477139</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>46455589</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>21112734</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>79944124</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>12754617</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>52273094</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>52155890</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>7223239</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1098624290</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="E89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>79451174</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>88252540</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>51958008</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>52912472</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
         <v>29</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>32</v>
+      </c>
+      <c r="D130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>27</v>
+      </c>
+      <c r="E158" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Profesores.xlsx
+++ b/backend/Profesores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto_Grado\Front-End\DT_2025-1-12\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22440E-6060-4E09-9263-EEF8CC35FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE4437A-9877-4551-9EDB-0311482E961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="152">
   <si>
     <t>MATERIA</t>
   </si>
@@ -163,6 +163,324 @@
   </si>
   <si>
     <t>Electiva profesional 2: Riesgos 2.</t>
+  </si>
+  <si>
+    <t>#RAC</t>
+  </si>
+  <si>
+    <t>RAC</t>
+  </si>
+  <si>
+    <t>RAC3</t>
+  </si>
+  <si>
+    <t>Evalúan proyectos para proponer recomendaciones que permiten mejorar la gestión del proyecto</t>
+  </si>
+  <si>
+    <t>RAC7</t>
+  </si>
+  <si>
+    <t>Seleccionan proyectos que se encuetran articulados con los objetivos estratégicos de la organización por medio del análisis de estándares para la entrega de valor a las organizaciones.</t>
+  </si>
+  <si>
+    <t>RAC10</t>
+  </si>
+  <si>
+    <t>Diseñan un programa con grupos de proyectos por medio de las teorías organizacionales para que los resultados aporten al cumplimiento de una planeación estratégica organizacional.</t>
+  </si>
+  <si>
+    <t>RAC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizan los estándares internacionales de Gerencia de Proyectos por medio de criterios de decisión y argumentación para la ejecución eficiente de los proyectos. </t>
+  </si>
+  <si>
+    <t>RAC14</t>
+  </si>
+  <si>
+    <t>Aplican un enfoque de pensamiento sistémico para optimizar la entrega de productos y servicios que se alinien con los objetivos organizacionales</t>
+  </si>
+  <si>
+    <t>RAC22</t>
+  </si>
+  <si>
+    <t>Aplican técnicas de análisis para evaluar la efectividad de las propuestas generadas en función de las necesidades organizacionales.</t>
+  </si>
+  <si>
+    <t>RAC46</t>
+  </si>
+  <si>
+    <t>Emplean un proceso sistemático y estructurado para la evaluación de oportunidades de innovación, por medio de la inclusión de la definición de criterios.</t>
+  </si>
+  <si>
+    <t>RAC34</t>
+  </si>
+  <si>
+    <t>Utilizan los principios de gestión de riesgos como marco para la toma de decisiones estratégicas y tácticas en la Organización</t>
+  </si>
+  <si>
+    <t>RAC41</t>
+  </si>
+  <si>
+    <t>Participan en el desarrollo de una cultura organizacional centrada en la innovación, la adaptabilidad y la mejora continua utilizando sus conocimientos en la gestión de proyectos</t>
+  </si>
+  <si>
+    <t>RAC44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboran marcos de referencia, soportados en una revisión bibliográfica para realizar un diagnóstico disciplinar o pluridisciplinar. </t>
+  </si>
+  <si>
+    <t>RAC48</t>
+  </si>
+  <si>
+    <t>Definen los requisitos del proyecto a partir del diagnóstico del contexto para determinar su alcance en un nivel propio del área de formación.</t>
+  </si>
+  <si>
+    <t>RAC25</t>
+  </si>
+  <si>
+    <t>Organizan de manera adecuada los equipos de trabajo para potencializar las habilidades del equipo y enfocar los equipos a la obtención de resultados.</t>
+  </si>
+  <si>
+    <t>RAC5</t>
+  </si>
+  <si>
+    <t>Lideran iniciativas de mejora continua en la gestión de proyectos por medio de la aplicación de competencias gerenciale para optimizar los tiempos de respuesta en las organizaciones.</t>
+  </si>
+  <si>
+    <t>RAC8</t>
+  </si>
+  <si>
+    <t>Toman decisiones por medio de estructuras escalonadas de acuerdo a los criterios de la triple restricción para iniciar, planear, controlar y cerrar el proyecto</t>
+  </si>
+  <si>
+    <t>RAC16</t>
+  </si>
+  <si>
+    <t>Evalúan diversas tecnologías emergentes y su aplicabilidad en la toma de decisiones en la gestión de proyectos.</t>
+  </si>
+  <si>
+    <t>RAC37</t>
+  </si>
+  <si>
+    <t>Identifican las necesidades y oportunidades de transformación digital en una organización, evaluando su capacidad actual y estableciendo objetivos claros y alcanzables</t>
+  </si>
+  <si>
+    <t>RAC27</t>
+  </si>
+  <si>
+    <t>Validan las habilidades del equipo para seleccionar de manera estratégica los roles de desempeño en un proyecto determinado.</t>
+  </si>
+  <si>
+    <t>RAC23</t>
+  </si>
+  <si>
+    <t>Identifican as competencias gerenciales para el manejo de equipos, toma de decisiones y relacionamiento</t>
+  </si>
+  <si>
+    <t>RAC45</t>
+  </si>
+  <si>
+    <t>Evalúan el impacto potencial de las tecnologías emergentes en la industria y en la forma en que se realizan los negocios para identificar oportunidades para la innovación y la diferenciación.</t>
+  </si>
+  <si>
+    <t>RAC40</t>
+  </si>
+  <si>
+    <t>Evalúan el éxito del proyecto de transformación digital mediante la recopilación de retroalimentación de los usuarios, la medición de los resultados alcanzados y el análisis de lecciones aprendidas, con el fin de mejorar continuamente los procesos y prácticas de transformación digital.</t>
+  </si>
+  <si>
+    <t>RAC30</t>
+  </si>
+  <si>
+    <t>Comunican de manera efectiva los hallazgos y resultados del análisis de riesgos a todas las partes interesadas relevantes, promoviendo una comprensión compartida de los desafíos y las estrategias de mitigación</t>
+  </si>
+  <si>
+    <t>RAC39</t>
+  </si>
+  <si>
+    <t>Demuestran habilidades de liderazgo adaptativo y empático, apoyando y motivando al equipo a través de los desafíos y cambios inherentes a la transformación digital, y promoviendo una cultura de innovación y excelencia en la ejecución del proyecto</t>
+  </si>
+  <si>
+    <t>RAC11</t>
+  </si>
+  <si>
+    <t>Estructuran criterios que faciliten la evaluación crítica del impacto de los proyectos en el cumplimiento de la estrategia organizacional, identificando áreas de mejora y proponiendo recomendaciones para optimizar la gestión de proyectos y la consecución de resultados</t>
+  </si>
+  <si>
+    <t>RAC24</t>
+  </si>
+  <si>
+    <t>Describen de manera específica las competencias gerenciales relacionadas con el ser en beneficio del desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>RAC28</t>
+  </si>
+  <si>
+    <t>Identifican los principales riesgos potenciales que pueden afectar el éxito de un proyecto, considerando tanto factores internos como externos.</t>
+  </si>
+  <si>
+    <t>RAC49</t>
+  </si>
+  <si>
+    <t>Aplican los principios éticos y profesionales en su trabajo de grado por medio del enfoque biopsicosocial y cultural y los principios de la bioética para asegurar la disponibilidad, la integridad, la confiabilidad de los datos y el respeto por los derechos de los participantes y la comunidad impactada.</t>
+  </si>
+  <si>
+    <t>RAC35</t>
+  </si>
+  <si>
+    <t>Definen métricas con el fin de hacer el plan de la calidad del proyecto y del producto</t>
+  </si>
+  <si>
+    <t>RAC36</t>
+  </si>
+  <si>
+    <t>Reconocen los fundamentos y principios de la transformación digital, incluyendo las tecnologías emergentes, las tendencias del mercado y los modelos de negocio innovadores.</t>
+  </si>
+  <si>
+    <t>RAC9</t>
+  </si>
+  <si>
+    <t>Aplican competencias blandas por emdio del manejo de equipos para poder cerrar un proyecto de manera eficaz, cumpliendo con los requerimientos y calidad solicitada.</t>
+  </si>
+  <si>
+    <t>RAC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplican los principios fundamentales de la gestión de proyectos para la planeación y ejecución de proyectos bajo diferentes contextos empresariales </t>
+  </si>
+  <si>
+    <t>RAC15</t>
+  </si>
+  <si>
+    <t>Aplican técnicas de análisis y evaluación para determinar la efectividad de las herramientas digitales en la generación de valor y entrega de resultados en un proyecto.</t>
+  </si>
+  <si>
+    <t>RAC20</t>
+  </si>
+  <si>
+    <t>Aplican técnicas de gestión de riesgos para establecer planes de gestión que disminuyan la incertidumbre de los proyectos.</t>
+  </si>
+  <si>
+    <t>RAC32</t>
+  </si>
+  <si>
+    <t>Aplicar técnicas de recuperación en la ejecución de un proyecto con el fin de que tomar decisiones.</t>
+  </si>
+  <si>
+    <t>RAC38</t>
+  </si>
+  <si>
+    <t>Planifican soluciones tecnológicas innovadoras y escalables que impulsen la transformación digital de la organización, asegurando su alineación con los objetivos estratégicos y las necesidades del negocio,</t>
+  </si>
+  <si>
+    <t>RAC51</t>
+  </si>
+  <si>
+    <t>Comunican de forma oral y escrita los resultados de la alernativa realizada por medio de presentaciones orales para dar evidencia del cumplimiento de las competencias gerenciales</t>
+  </si>
+  <si>
+    <t>RAC42</t>
+  </si>
+  <si>
+    <t>Emplean los conceptos relacionados con la generación de valor a través de un sistema de gestión integral para enmarcarlo en la estrategia y la realidad competitiva del entorno</t>
+  </si>
+  <si>
+    <t>RAC6</t>
+  </si>
+  <si>
+    <t>Emplean los recursos necesarios por medio de los planes de gestión para cumplir eficientemente los  hitos y  entrega de productos, servicios y resultados altamente calificados</t>
+  </si>
+  <si>
+    <t>RAC29</t>
+  </si>
+  <si>
+    <t>Utilizan herramientas tecnológicas especializadas para la gestión de riesgos</t>
+  </si>
+  <si>
+    <t>RAC31</t>
+  </si>
+  <si>
+    <t>Utilizan herramientas tecnológicas especializadas para  evaluar el impacto real de los riesgos en el progreso y los resultados del proyecto, utilizando datos objetivos y mediciones cuantitativas.</t>
+  </si>
+  <si>
+    <t>RAC13</t>
+  </si>
+  <si>
+    <t>Realizan análisis de rentabilidad de beneficios aplicando herramientas de medición para evaluar la viabilidad económica de los proyectos durante su ejecución</t>
+  </si>
+  <si>
+    <t>RAC33</t>
+  </si>
+  <si>
+    <t>Integran la gestión de riesgos de manera continua en los procesos de toma de decisiones del proyecto</t>
+  </si>
+  <si>
+    <t>RAC4</t>
+  </si>
+  <si>
+    <t>Diseñan planes de gestión de proyectos para adaptados a las necesidades de un entorno específico por medio del uso de técnicas y herramientas.</t>
+  </si>
+  <si>
+    <t>RAC50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizan situaciones problémicas utilizando metodologías, técnicas, y conceptos aplicados al área de interés para consolidar el problema a intervenir mediante las alternativas propuestas. </t>
+  </si>
+  <si>
+    <t>RAC47</t>
+  </si>
+  <si>
+    <t>Desarrollan una propuesta a partir de objetivos, alcance y metodologías propias del área de conocimiento disciplinar para responder a la problemática consolidada desde el enfoque Biosicosocial y Cultural y los principios de la bioética.</t>
+  </si>
+  <si>
+    <t>RAC52</t>
+  </si>
+  <si>
+    <t>Implementan o simulan la alternativa de intervención seleccionada, para aportar a la entrega de valor en un contexto específico, por medio del desarrollo del trabajo de grado</t>
+  </si>
+  <si>
+    <t>RAC12</t>
+  </si>
+  <si>
+    <t>Implementan presupuestos efectivos en los proyectos, utilizando técnicas de Control de Costos y Presupuesto para monitorear y gestionar el desempeño financiero.</t>
+  </si>
+  <si>
+    <t>RAC53</t>
+  </si>
+  <si>
+    <t>Diseñan soluciones a situaciones problémicas en un contexto específico para integrar enfoques disciplinares o pluridisciplinares, a partir de estructuras teórico-conceptuales para generar valor.</t>
+  </si>
+  <si>
+    <t>RAC19</t>
+  </si>
+  <si>
+    <t>Diseñan estrategias de gestión en la ejecución de proyectos, utilizando herramientas tecnológicas para una organización.</t>
+  </si>
+  <si>
+    <t>RAC17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionan herramientas para la formulación, viabilidad y planeación de proyectos </t>
+  </si>
+  <si>
+    <t>RAC18</t>
+  </si>
+  <si>
+    <t>Analizan diversas tecnologías emergentes y su aplicabilidad en la toma de decisiones para la gestión de proyectos.</t>
+  </si>
+  <si>
+    <t>RAC54</t>
+  </si>
+  <si>
+    <t>Realizán una revisión crítica de la literatura existente relacionada con su trabajo de grado, por medio del uso de herramientas de búsqueda, para identificar brechas en el conocimiento y tendencias emergentes.</t>
+  </si>
+  <si>
+    <t>RAC43</t>
+  </si>
+  <si>
+    <t>Evalúan las ideas más prometedoras mediante criterios, con el fin de llevar a cabo el levantamiento de lecciones aprendidas y toma de decisiones estratégicas</t>
   </si>
 </sst>
 </file>
@@ -181,6 +499,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +855,7 @@
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -544,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
@@ -561,8 +880,14 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1110459170</v>
       </c>
@@ -570,16 +895,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>79733257</v>
       </c>
@@ -587,13 +918,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1127340813</v>
       </c>
@@ -601,13 +938,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1019008626</v>
       </c>
@@ -615,25 +958,31 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>52557001</v>
       </c>
@@ -641,13 +990,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1013602745</v>
       </c>
@@ -655,13 +1010,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>51849457</v>
       </c>
@@ -669,13 +1030,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>79631878</v>
       </c>
@@ -683,13 +1050,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1032406082</v>
       </c>
@@ -697,19 +1070,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>91531865</v>
       </c>
@@ -717,16 +1096,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2112734</v>
       </c>
@@ -734,19 +1119,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>52991828</v>
       </c>
@@ -754,13 +1145,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>52983338</v>
       </c>
@@ -768,22 +1165,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>52273094</v>
       </c>
@@ -791,13 +1194,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1121826810</v>
       </c>
@@ -805,13 +1214,19 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>79519129</v>
       </c>
@@ -819,16 +1234,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>52270850</v>
       </c>
@@ -836,13 +1257,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1024477139</v>
       </c>
@@ -850,19 +1277,25 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46455589</v>
       </c>
@@ -870,1584 +1303,2442 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>29</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
         <v>32</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
         <v>32</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
         <v>25</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>29</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
         <v>39</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
         <v>23</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" t="s">
         <v>32</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>36</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>35</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
         <v>28</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>25</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>29</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
         <v>28</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>39</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
         <v>23</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
         <v>23</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
         <v>38</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
         <v>28</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>25</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
         <v>29</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
         <v>28</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>39</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" t="s">
         <v>23</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s">
         <v>23</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
         <v>38</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
         <v>28</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>25</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>29</v>
       </c>
-      <c r="H82" t="s">
+      <c r="J82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
         <v>39</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" t="s">
         <v>23</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>24</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" t="s">
         <v>23</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
         <v>23</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" t="s">
         <v>23</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" t="s">
         <v>32</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>33</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>28</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
         <v>31</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
         <v>31</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>29</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" t="s">
         <v>32</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
         <v>25</v>
       </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>29</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" t="s">
         <v>39</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
+      <c r="H102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" t="s">
         <v>23</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" t="s">
         <v>32</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>36</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>43</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E108" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s">
         <v>28</v>
       </c>
-      <c r="F108" t="s">
+      <c r="H108" t="s">
         <v>39</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" t="s">
         <v>23</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
         <v>29</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" t="s">
         <v>23</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
         <v>38</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
         <v>28</v>
       </c>
-      <c r="F114" t="s">
+      <c r="H114" t="s">
         <v>25</v>
       </c>
-      <c r="G114" t="s">
+      <c r="I114" t="s">
         <v>29</v>
       </c>
-      <c r="H114" t="s">
+      <c r="J114" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E120" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
         <v>39</v>
       </c>
-      <c r="F120" t="s">
+      <c r="H120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" t="s">
         <v>32</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>36</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>25</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>29</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" t="s">
+        <v>75</v>
+      </c>
+      <c r="E122" t="s">
         <v>23</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" t="s">
         <v>23</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E124" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" t="s">
         <v>32</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" t="s">
         <v>32</v>
       </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>36</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" t="s">
         <v>29</v>
       </c>
-      <c r="F126" t="s">
+      <c r="H126" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>37</v>
       </c>
-      <c r="E127" t="s">
+      <c r="G127" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E128" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" t="s">
         <v>32</v>
       </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
         <v>36</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" t="s">
         <v>32</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" t="s">
         <v>23</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
+        <v>94</v>
+      </c>
+      <c r="D132" t="s">
+        <v>95</v>
+      </c>
+      <c r="E132" t="s">
         <v>32</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134" t="s">
         <v>32</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E137" t="s">
         <v>32</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>36</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>29</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" t="s">
         <v>23</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>24</v>
       </c>
-      <c r="E138" t="s">
+      <c r="G138" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" t="s">
         <v>23</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" t="s">
         <v>23</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" t="s">
         <v>23</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E143" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" t="s">
         <v>23</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+      <c r="E145" t="s">
         <v>32</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>33</v>
       </c>
-      <c r="E145" t="s">
+      <c r="G145" t="s">
         <v>28</v>
       </c>
-      <c r="F145" t="s">
+      <c r="H145" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D146" t="s">
+        <v>67</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="s">
         <v>31</v>
       </c>
-      <c r="E146" t="s">
+      <c r="G146" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" t="s">
         <v>31</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="s">
         <v>29</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" t="s">
+        <v>71</v>
+      </c>
+      <c r="E148" t="s">
         <v>32</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E149" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
         <v>25</v>
       </c>
-      <c r="F149" t="s">
+      <c r="H149" t="s">
         <v>29</v>
       </c>
-      <c r="G149" t="s">
+      <c r="I149" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="E150" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" t="s">
         <v>39</v>
       </c>
-      <c r="F150" t="s">
+      <c r="H150" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E151" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
         <v>38</v>
       </c>
-      <c r="F151" t="s">
+      <c r="H151" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="E152" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D153" t="s">
+        <v>115</v>
+      </c>
+      <c r="E153" t="s">
         <v>23</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" t="s">
+        <v>117</v>
+      </c>
+      <c r="E154" t="s">
         <v>32</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>36</v>
       </c>
-      <c r="E154" t="s">
+      <c r="G154" t="s">
         <v>43</v>
       </c>
-      <c r="F154" t="s">
+      <c r="H154" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D155" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" t="s">
+        <v>27</v>
+      </c>
+      <c r="G156" t="s">
         <v>28</v>
       </c>
-      <c r="F156" t="s">
+      <c r="H156" t="s">
         <v>25</v>
       </c>
-      <c r="G156" t="s">
+      <c r="I156" t="s">
         <v>29</v>
       </c>
-      <c r="H156" t="s">
+      <c r="J156" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E157" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" t="s">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E159" t="s">
+        <v>26</v>
+      </c>
+      <c r="F159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E160" t="s">
+        <v>26</v>
+      </c>
+      <c r="F160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D161" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="E161" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="E162" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" t="s">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s">
         <v>39</v>
       </c>
-      <c r="F162" t="s">
+      <c r="H162" t="s">
         <v>40</v>
       </c>
     </row>
